--- a/erecsionprjt/src/resources/testdata/Erecsion.xlsx
+++ b/erecsionprjt/src/resources/testdata/Erecsion.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="11796" windowHeight="4260" firstSheet="1" activeTab="5"/>
+    <workbookView activeTab="5" firstSheet="1" windowHeight="4260" windowWidth="11796" xWindow="0" yWindow="2472"/>
   </bookViews>
   <sheets>
-    <sheet name="preconfig" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
-    <sheet name="Newuser" sheetId="3" r:id="rId3"/>
-    <sheet name="Newgroup" sheetId="4" r:id="rId4"/>
-    <sheet name="Groups" sheetId="5" r:id="rId5"/>
-    <sheet name="Permissions" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
+    <sheet name="preconfig" r:id="rId1" sheetId="1"/>
+    <sheet name="LoginPage" r:id="rId2" sheetId="2"/>
+    <sheet name="Newuser" r:id="rId3" sheetId="3"/>
+    <sheet name="Newgroup" r:id="rId4" sheetId="4"/>
+    <sheet name="Groups" r:id="rId5" sheetId="5"/>
+    <sheet name="Permissions" r:id="rId6" sheetId="6"/>
+    <sheet name="Sheet6" r:id="rId7" sheetId="7"/>
+    <sheet name="Sheet7" r:id="rId8" sheetId="8"/>
+    <sheet name="Sheet8" r:id="rId9" sheetId="9"/>
+    <sheet name="Sheet9" r:id="rId10" sheetId="10"/>
   </sheets>
   <calcPr calcId="125725"/>
   <oleSize ref="A1:L13"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>S.no</t>
   </si>
@@ -132,6 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -172,34 +173,34 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -208,10 +209,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -367,7 +368,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -376,13 +377,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -392,7 +393,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -401,7 +402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,7 +411,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -420,12 +421,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -456,7 +457,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -475,7 +476,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -488,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -496,12 +497,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="17.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="31.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -527,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row ht="28.8" r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -561,13 +562,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -599,13 +600,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -613,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -674,14 +675,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -689,10 +690,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -762,7 +763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8">
+    <row ht="28.8" r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -817,15 +818,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="C6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -833,7 +834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -902,14 +903,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -917,8 +918,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -977,13 +978,13 @@
     </row>
     <row r="4" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -991,8 +992,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1050,14 +1051,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -1089,13 +1090,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -1127,13 +1128,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -1165,6 +1166,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/erecsionprjt/src/resources/testdata/Erecsion.xlsx
+++ b/erecsionprjt/src/resources/testdata/Erecsion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
   <si>
     <t>S.no</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>Dolibarr - Permissions</t>
+  </si>
+  <si>
+    <t>Dolibarr - Third party</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -970,10 +976,10 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7"/>
